--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwang\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8760A0-730F-422A-999D-4A7BECED596C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -23,18 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>할일</t>
   </si>
@@ -88,13 +83,29 @@
   </si>
   <si>
     <t>아직 code refactoring이 되지 않은 상태임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload(key, message), download(key); 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 프로그램에 서버가 구현 되어 있지 않음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -157,7 +168,76 @@
   </cellStyles>
   <dxfs count="31">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -184,76 +264,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -293,75 +304,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="30"/>
-    <tableColumn id="2" name="내용" dataDxfId="29"/>
-    <tableColumn id="3" name="할당일" dataDxfId="28"/>
-    <tableColumn id="4" name="완성일" dataDxfId="27"/>
-    <tableColumn id="5" name="결과" dataDxfId="26"/>
-    <tableColumn id="6" name="문제점" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="6"/>
-    <tableColumn id="2" name="내용" dataDxfId="5"/>
-    <tableColumn id="3" name="할당일" dataDxfId="4"/>
-    <tableColumn id="4" name="완성일" dataDxfId="3"/>
-    <tableColumn id="5" name="결과" dataDxfId="2"/>
-    <tableColumn id="6" name="문제점" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="24"/>
-    <tableColumn id="2" name="내용" dataDxfId="23"/>
-    <tableColumn id="3" name="할당일" dataDxfId="22"/>
-    <tableColumn id="4" name="완성일" dataDxfId="21"/>
-    <tableColumn id="5" name="결과" dataDxfId="20"/>
-    <tableColumn id="6" name="문제점" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="18"/>
-    <tableColumn id="2" name="내용" dataDxfId="17"/>
-    <tableColumn id="3" name="할당일" dataDxfId="16"/>
-    <tableColumn id="4" name="완성일" dataDxfId="15"/>
-    <tableColumn id="5" name="결과" dataDxfId="14"/>
-    <tableColumn id="6" name="문제점" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table156" displayName="Table156" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table156" displayName="Table156" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="12"/>
-    <tableColumn id="2" name="내용" dataDxfId="11"/>
-    <tableColumn id="3" name="할당일" dataDxfId="10"/>
-    <tableColumn id="4" name="완성일" dataDxfId="9"/>
-    <tableColumn id="5" name="결과" dataDxfId="8"/>
-    <tableColumn id="6" name="문제점" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -663,24 +674,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="5" max="5" width="26.36328125" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -720,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -738,7 +749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -746,7 +757,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -754,7 +765,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -762,7 +773,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -770,7 +781,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -778,7 +789,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -786,7 +797,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -794,7 +805,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -802,7 +813,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -810,7 +821,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -818,7 +829,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -826,7 +837,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -844,23 +855,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
-    <col min="3" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.6328125" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -880,7 +891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -900,7 +911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -908,7 +919,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
@@ -917,7 +928,7 @@
       <c r="F4" s="5"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -925,7 +936,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
@@ -933,7 +944,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -941,7 +952,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -949,7 +960,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
@@ -957,7 +968,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
@@ -965,7 +976,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -973,7 +984,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -981,7 +992,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -989,7 +1000,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -997,7 +1008,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -1015,19 +1026,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.08984375" customWidth="1"/>
+    <col min="1" max="6" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1085,7 +1096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1093,7 +1104,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1101,7 +1112,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1109,7 +1120,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1117,7 +1128,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1125,7 +1136,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1133,7 +1144,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1141,7 +1152,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1149,7 +1160,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1157,7 +1168,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1165,7 +1176,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1173,7 +1184,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1191,19 +1202,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.1796875" customWidth="1"/>
+    <col min="1" max="6" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1223,45 +1234,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>43594</v>
       </c>
-      <c r="D2" s="2">
-        <v>43597</v>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1269,7 +1270,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1277,7 +1278,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1285,7 +1286,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1293,7 +1294,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1301,7 +1302,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1309,7 +1310,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1317,7 +1318,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1325,7 +1326,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1333,7 +1334,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1341,7 +1342,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1349,7 +1350,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1360,26 +1361,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="113.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="113.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="113.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="113.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1445,7 +1447,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1453,7 +1455,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1461,7 +1463,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1469,7 +1471,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1477,7 +1479,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1485,7 +1487,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1493,7 +1495,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1501,7 +1503,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1509,7 +1511,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1517,7 +1519,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1525,7 +1527,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEE\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>할일</t>
   </si>
@@ -88,6 +88,22 @@
   </si>
   <si>
     <t>아직 code refactoring이 되지 않은 상태임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 리팩토링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UserInterface.java에 대한 모듈화 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 리팩토링 이후 이전과 같이 동작하는 것을 확인한 후 git에 commit함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 class에 대해서도 코드 리팩토링이 필요함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +173,76 @@
   </cellStyles>
   <dxfs count="31">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -184,76 +269,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -308,15 +324,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
   <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="6"/>
-    <tableColumn id="2" name="내용" dataDxfId="5"/>
-    <tableColumn id="3" name="할당일" dataDxfId="4"/>
-    <tableColumn id="4" name="완성일" dataDxfId="3"/>
-    <tableColumn id="5" name="결과" dataDxfId="2"/>
-    <tableColumn id="6" name="문제점" dataDxfId="1"/>
+    <tableColumn id="1" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -326,12 +342,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="24"/>
-    <tableColumn id="2" name="내용" dataDxfId="23"/>
-    <tableColumn id="3" name="할당일" dataDxfId="22"/>
-    <tableColumn id="4" name="완성일" dataDxfId="21"/>
-    <tableColumn id="5" name="결과" dataDxfId="20"/>
-    <tableColumn id="6" name="문제점" dataDxfId="19"/>
+    <tableColumn id="1" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -341,12 +357,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="18"/>
-    <tableColumn id="2" name="내용" dataDxfId="17"/>
-    <tableColumn id="3" name="할당일" dataDxfId="16"/>
-    <tableColumn id="4" name="완성일" dataDxfId="15"/>
-    <tableColumn id="5" name="결과" dataDxfId="14"/>
-    <tableColumn id="6" name="문제점" dataDxfId="13"/>
+    <tableColumn id="1" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -356,12 +372,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table156" displayName="Table156" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="12"/>
-    <tableColumn id="2" name="내용" dataDxfId="11"/>
-    <tableColumn id="3" name="할당일" dataDxfId="10"/>
-    <tableColumn id="4" name="완성일" dataDxfId="9"/>
-    <tableColumn id="5" name="결과" dataDxfId="8"/>
-    <tableColumn id="6" name="문제점" dataDxfId="7"/>
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -848,15 +864,15 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
     <col min="3" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.6328125" customWidth="1"/>
+    <col min="5" max="5" width="29.08984375" customWidth="1"/>
     <col min="6" max="6" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -900,13 +916,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43595</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43596</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
@@ -1008,8 +1036,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1047,7 +1076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1223,7 +1252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1243,7 +1272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
   <si>
     <t>할일</t>
   </si>
@@ -105,6 +99,18 @@
   <si>
     <t>다른 class에 대해서도 코드 리팩토링이 필요함</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 구현</t>
+  </si>
+  <si>
+    <t>upload(key, message), download(key); 구현</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>원래 프로그램에 서버가 구현 되어 있지 않음</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -160,6 +166,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -863,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1223,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1252,43 +1264,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="2" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6">
         <v>43594</v>
       </c>
-      <c r="D2" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEE\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoony\Desktop\KNU-Software-Engineering-Team-15-master\KNU-Software-Engineering-Team-15-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8045D1AF-4CB9-45AD-B592-31CA56E14132}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>할일</t>
   </si>
@@ -111,12 +112,24 @@
   </si>
   <si>
     <t>원래 프로그램에 서버가 구현 되어 있지 않음</t>
+  </si>
+  <si>
+    <t>login UI 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 ui를 화면 중앙에 표시하도록 함, passwd부분에서 enter key를 통해 로그인 버튼이 눌리도록 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상적으로 UI 페이지가 모니터 중앙에 표시되었고, passwd부분에서 enter key를 치면 버튼이 눌리도록 되었음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -156,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -179,6 +192,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -321,75 +340,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="30"/>
-    <tableColumn id="2" name="내용" dataDxfId="29"/>
-    <tableColumn id="3" name="할당일" dataDxfId="28"/>
-    <tableColumn id="4" name="완성일" dataDxfId="27"/>
-    <tableColumn id="5" name="결과" dataDxfId="26"/>
-    <tableColumn id="6" name="문제점" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table156" displayName="Table156" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table156" displayName="Table156" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -691,7 +710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -872,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1056,11 +1075,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1088,43 +1107,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="2" spans="1:6" ht="96" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9">
+        <v>43608</v>
+      </c>
+      <c r="D2" s="9">
+        <v>43610</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
@@ -1225,18 +1232,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1398,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoony\Desktop\KNU-Software-Engineering-Team-15-master\KNU-Software-Engineering-Team-15-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEE\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8045D1AF-4CB9-45AD-B592-31CA56E14132}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>할일</t>
   </si>
@@ -123,13 +122,53 @@
   </si>
   <si>
     <t>정상적으로 UI 페이지가 모니터 중앙에 표시되었고, passwd부분에서 enter key를 치면 버튼이 눌리도록 되었음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파견 실적 조회 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파견 실적 조회 기능을             새로 구현함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 합격 등록을 한 후 파견실적 데이터를 새로 생성하여 파견실적 리스트에 저장할 수 있게 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파견 실적을 볼 수 있는 UI가 아직 구현되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 패턴 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Observer 패턴을 UserInterface 클래스와 그 외 기능을 구현한 UI 클래스들에 대해 적용함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 클래스들에서 불필요한 코드를 제거하여 가독성과 유지 보수성이 상승함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에서 읽어오는 것에 대한 수정이 이루어지지 않아 실시간 업데이트가 아님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 입출력 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정해진 형식에 맞춰 DB에서 읽고 저장하여 실시간 업데이트가 되고 파일 형식의 DB가 아닌 서버 형식의 DB와 읽고 쓸 수 있도록 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -340,75 +379,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="25"/>
+    <tableColumn id="1" name="할일" dataDxfId="30"/>
+    <tableColumn id="2" name="내용" dataDxfId="29"/>
+    <tableColumn id="3" name="할당일" dataDxfId="28"/>
+    <tableColumn id="4" name="완성일" dataDxfId="27"/>
+    <tableColumn id="5" name="결과" dataDxfId="26"/>
+    <tableColumn id="6" name="문제점" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table156" displayName="Table156" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table156" displayName="Table156" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -710,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -891,11 +930,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -967,26 +1006,54 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43598</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43601</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43610</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43610</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="96" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -1075,10 +1142,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1240,7 +1307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1406,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEE\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoony\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A78CC4-8FF7-4A24-8C10-690CBACC1624}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21168" windowHeight="8280" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>정해진 형식에 맞춰 DB에서 읽고 저장하여 실시간 업데이트가 되고 파일 형식의 DB가 아닌 서버 형식의 DB와 읽고 쓸 수 있도록 수정</t>
   </si>
@@ -88,16 +89,10 @@
     <t>주요 기능 질의 추가</t>
   </si>
   <si>
-    <t>로그인 ui를 화면 중앙에 표시하도록 함, passwd부분에서 enter key를 통해 로그인 버튼이 눌리도록 함</t>
-  </si>
-  <si>
     <t>upload(key, message), download(key); 구현</t>
   </si>
   <si>
     <t>각 클래스들에서 불필요한 코드를 제거하여 가독성과 유지 보수성이 상승함</t>
-  </si>
-  <si>
-    <t>정상적으로 UI 페이지가 모니터 중앙에 표시되었고, passwd부분에서 enter key를 치면 버튼이 눌리도록 되었음.</t>
   </si>
   <si>
     <t>개선된 코드
@@ -177,11 +172,51 @@
     <t>회원가입 기능이 아직 구현되있지 않음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>login UI 디자인 개선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 버튼을 추가했고, 팀원들과 의견을 받아드려서 디자인을 수정했습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상적으로 UI 페이지가 모니터 중앙에 표시되었고, passwd부분에서 enter key를 치면 버튼이 눌리도록 되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 UI디자인이랑 따로 노는듯한 느낌이 들었습니다.  회원가입 버튼을 만들어서 새로운 회원가입 창을 만들어야합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 UI 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 UI창을 만들었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 디자인이 필요하고, 회원가입 기능을 추가해야합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 UI창이 처음부터 구현이 되어있지 않은 상태였습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 UI 디자인 부분이 안되어 있어서 배경 글자 폰트 등 여러가지를 수정해야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 ui를 화면 중앙에 표시하도록 함, passwd부분에서 enter key를 통해 로그인 버튼이 눌리도록 해야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -225,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -257,6 +292,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -399,75 +440,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="30"/>
-    <tableColumn id="2" name="내용" dataDxfId="29"/>
-    <tableColumn id="3" name="할당일" dataDxfId="28"/>
-    <tableColumn id="4" name="완성일" dataDxfId="27"/>
-    <tableColumn id="5" name="결과" dataDxfId="26"/>
-    <tableColumn id="6" name="문제점" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table156" displayName="Table156" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table156" displayName="Table156" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -764,7 +805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -804,7 +845,7 @@
     </row>
     <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -819,12 +860,12 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2">
@@ -837,7 +878,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -947,11 +988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -986,7 +1027,7 @@
     </row>
     <row r="2" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -1001,15 +1042,15 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4">
         <v>43595</v>
@@ -1021,15 +1062,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4">
         <v>43598</v>
@@ -1041,7 +1082,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -1050,7 +1091,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
         <v>43610</v>
@@ -1059,7 +1100,7 @@
         <v>43610</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>13</v>
@@ -1079,18 +1120,18 @@
         <v>43614</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4">
         <v>43616</v>
@@ -1099,10 +1140,10 @@
         <v>43616</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1180,12 +1221,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1213,12 +1254,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="96" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
+      <c r="B2" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C2" s="9">
         <v>43608</v>
@@ -1226,26 +1267,50 @@
       <c r="D2" s="9">
         <v>43610</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>24</v>
+      <c r="E2" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9">
+        <v>43601</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43611</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43612</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43622</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -1338,15 +1403,15 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1381,10 +1446,10 @@
     </row>
     <row r="2" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6">
         <v>43594</v>
@@ -1396,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1514,7 +1579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1563,7 +1628,7 @@
         <v>43616</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1"/>
     </row>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoony\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEE\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A78CC4-8FF7-4A24-8C10-690CBACC1624}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>정해진 형식에 맞춰 DB에서 읽고 저장하여 실시간 업데이트가 되고 파일 형식의 DB가 아닌 서버 형식의 DB와 읽고 쓸 수 있도록 수정</t>
   </si>
@@ -212,11 +211,55 @@
     <t>로그인 ui를 화면 중앙에 표시하도록 함, passwd부분에서 enter key를 통해 로그인 버튼이 눌리도록 해야 합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Guest 클래스 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guest 클래스가 사용되는 부분이 무의미하여 삭제함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불필요한 클래스를 삭제함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administer 클래스도 불필요하다 생각됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외처리 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집공고 작성시 사용자 입력에 따른 예외처리를 추가함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 정수가 입력되어야 할때 String이 입력되면 에러가 아닌 메시지 박스로 경고를 보냄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면의 회원가입 기능을 이용해서 새로운 사용자를 등록할 수 있게함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 기능을 통해 새로운 사용자를 등록할 수 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 학번 회원가입을 검사하지 않음 또한 학생의 학번을 임의로 설정할 수 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -440,75 +483,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="25"/>
+    <tableColumn id="1" name="할일" dataDxfId="30"/>
+    <tableColumn id="2" name="내용" dataDxfId="29"/>
+    <tableColumn id="3" name="할당일" dataDxfId="28"/>
+    <tableColumn id="4" name="완성일" dataDxfId="27"/>
+    <tableColumn id="5" name="결과" dataDxfId="26"/>
+    <tableColumn id="6" name="문제점" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table156" displayName="Table156" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table156" displayName="Table156" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -805,7 +848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -988,12 +1031,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1146,29 +1189,63 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+    <row r="8" spans="1:8" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43617</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43617</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43617</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43617</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43623</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43623</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
@@ -1221,11 +1298,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1411,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1579,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F14"/>
   <sheetViews>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoony\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김근우\Desktop\소프트웨어공학\software engineering git\KNU-Software-Engineering-Team-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A78CC4-8FF7-4A24-8C10-690CBACC1624}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2548E8E1-A102-436D-B8F9-16D0D6A7093A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>정해진 형식에 맞춰 DB에서 읽고 저장하여 실시간 업데이트가 되고 파일 형식의 DB가 아닌 서버 형식의 DB와 읽고 쓸 수 있도록 수정</t>
   </si>
@@ -59,22 +59,13 @@
     <t>클래스와 패키지의 명명법을 camel case와 pascal case로 변경</t>
   </si>
   <si>
-    <t>개선된 코드 SearchMachine.java 를 git commit 함</t>
-  </si>
-  <si>
     <t>변경된 코드들이 이전과 같이 작동하는지 확인한 후 git에 commit함</t>
   </si>
   <si>
     <t>DB에서 읽어오는 것에 대한 수정이 이루어지지 않아 실시간 업데이트가 아님</t>
   </si>
   <si>
-    <t xml:space="preserve">Junit test code TestSearchMachine.java 를 git commit. </t>
-  </si>
-  <si>
     <t>최종 합격 등록을 한 후 파견실적 데이터를 새로 생성하여 파견실적 리스트에 저장할 수 있게 됨</t>
-  </si>
-  <si>
-    <t>세가지 유형의 검색조건에 따라 다른 검색이 가능하도록 개선</t>
   </si>
   <si>
     <t>login UI 개선</t>
@@ -104,12 +95,6 @@
 git commit함</t>
   </si>
   <si>
-    <t>코드가 지저분. Refactoring 필요</t>
-  </si>
-  <si>
-    <t>코드 커버리지가 낮음. 개선필요</t>
-  </si>
-  <si>
     <t>클래스 및 패키지 명명법 수정</t>
   </si>
   <si>
@@ -134,12 +119,6 @@
     <t>코드 리팩토링</t>
   </si>
   <si>
-    <t>검색기능개선</t>
-  </si>
-  <si>
-    <t>검색기능 관련 class unit testing</t>
-  </si>
-  <si>
     <t xml:space="preserve">UserInterface.java에 대한 모듈화 </t>
   </si>
   <si>
@@ -210,6 +189,18 @@
   </si>
   <si>
     <t>로그인 ui를 화면 중앙에 표시하도록 함, passwd부분에서 enter key를 통해 로그인 버튼이 눌리도록 해야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInterface UI 개선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System UI에서 userInterface UI에 대한 디자인을 좀더 사용하기 편하게 바꿈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래의 userInterface UI보다 보기에 깔끔하고 사용하기 용이함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -297,6 +288,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,23 +804,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="5" max="5" width="26.36328125" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -843,45 +840,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
+    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="13">
+        <v>43601</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -889,7 +873,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -897,7 +881,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -905,7 +889,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -913,7 +897,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -921,7 +905,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -929,7 +913,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -937,7 +921,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -945,7 +929,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -953,7 +937,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -961,7 +945,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -969,7 +953,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -980,9 +964,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -996,16 +980,16 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.08984375" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1025,9 +1009,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -1039,18 +1023,18 @@
         <v>43594</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4">
         <v>43595</v>
@@ -1062,15 +1046,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4">
         <v>43598</v>
@@ -1079,19 +1063,19 @@
         <v>43601</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4">
         <v>43610</v>
@@ -1100,15 +1084,15 @@
         <v>43610</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="96" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>0</v>
@@ -1120,18 +1104,18 @@
         <v>43614</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>43616</v>
@@ -1140,13 +1124,13 @@
         <v>43616</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -1154,7 +1138,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
@@ -1162,7 +1146,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
@@ -1170,7 +1154,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -1178,7 +1162,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -1186,7 +1170,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -1194,7 +1178,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -1202,7 +1186,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -1225,16 +1209,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.08984375" customWidth="1"/>
+    <col min="1" max="6" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1254,12 +1238,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9">
         <v>43608</v>
@@ -1268,16 +1252,16 @@
         <v>43610</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9">
         <v>43601</v>
@@ -1286,18 +1270,18 @@
         <v>43611</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <v>43612</v>
@@ -1306,13 +1290,13 @@
         <v>43622</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1320,7 +1304,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1328,7 +1312,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1336,7 +1320,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1344,7 +1328,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1352,7 +1336,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1360,7 +1344,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1368,7 +1352,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1376,7 +1360,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1384,7 +1368,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1392,7 +1376,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1419,12 +1403,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.1796875" customWidth="1"/>
+    <col min="1" max="6" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1444,12 +1428,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6">
         <v>43594</v>
@@ -1461,10 +1445,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1472,7 +1456,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1480,7 +1464,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1488,7 +1472,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1496,7 +1480,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1504,7 +1488,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1512,7 +1496,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1520,7 +1504,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1528,7 +1512,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1536,7 +1520,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1544,7 +1528,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1552,7 +1536,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1560,7 +1544,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1587,14 +1571,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
     <col min="3" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1614,9 +1598,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1628,11 +1612,11 @@
         <v>43616</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1640,7 +1624,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1648,7 +1632,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1656,7 +1640,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1664,7 +1648,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1672,7 +1656,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1680,7 +1664,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1688,7 +1672,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1696,7 +1680,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1704,7 +1688,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1712,7 +1696,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1720,7 +1704,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김근우\Desktop\소프트웨어공학\software engineering git\KNU-Software-Engineering-Team-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEE\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2548E8E1-A102-436D-B8F9-16D0D6A7093A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>정해진 형식에 맞춰 DB에서 읽고 저장하여 실시간 업데이트가 되고 파일 형식의 DB가 아닌 서버 형식의 DB와 읽고 쓸 수 있도록 수정</t>
   </si>
@@ -59,13 +58,22 @@
     <t>클래스와 패키지의 명명법을 camel case와 pascal case로 변경</t>
   </si>
   <si>
+    <t>개선된 코드 SearchMachine.java 를 git commit 함</t>
+  </si>
+  <si>
     <t>변경된 코드들이 이전과 같이 작동하는지 확인한 후 git에 commit함</t>
   </si>
   <si>
     <t>DB에서 읽어오는 것에 대한 수정이 이루어지지 않아 실시간 업데이트가 아님</t>
   </si>
   <si>
+    <t xml:space="preserve">Junit test code TestSearchMachine.java 를 git commit. </t>
+  </si>
+  <si>
     <t>최종 합격 등록을 한 후 파견실적 데이터를 새로 생성하여 파견실적 리스트에 저장할 수 있게 됨</t>
+  </si>
+  <si>
+    <t>세가지 유형의 검색조건에 따라 다른 검색이 가능하도록 개선</t>
   </si>
   <si>
     <t>login UI 개선</t>
@@ -95,6 +103,12 @@
 git commit함</t>
   </si>
   <si>
+    <t>코드가 지저분. Refactoring 필요</t>
+  </si>
+  <si>
+    <t>코드 커버리지가 낮음. 개선필요</t>
+  </si>
+  <si>
     <t>클래스 및 패키지 명명법 수정</t>
   </si>
   <si>
@@ -119,6 +133,12 @@
     <t>코드 리팩토링</t>
   </si>
   <si>
+    <t>검색기능개선</t>
+  </si>
+  <si>
+    <t>검색기능 관련 class unit testing</t>
+  </si>
+  <si>
     <t xml:space="preserve">UserInterface.java에 대한 모듈화 </t>
   </si>
   <si>
@@ -192,22 +212,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>userInterface UI 개선</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>System UI에서 userInterface UI에 대한 디자인을 좀더 사용하기 편하게 바꿈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원래의 userInterface UI보다 보기에 깔끔하고 사용하기 용이함</t>
+    <t>Guest 클래스 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guest 클래스가 사용되는 부분이 무의미하여 삭제함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불필요한 클래스를 삭제함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administer 클래스도 불필요하다 생각됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외처리 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집공고 작성시 사용자 입력에 따른 예외처리를 추가함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 정수가 입력되어야 할때 String이 입력되면 에러가 아닌 메시지 박스로 경고를 보냄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면의 회원가입 기능을 이용해서 새로운 사용자를 등록할 수 있게함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 기능을 통해 새로운 사용자를 등록할 수 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 학번 회원가입을 검사하지 않음 또한 학생의 학번을 임의로 설정할 수 없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -251,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -289,12 +341,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -437,75 +483,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="25"/>
+    <tableColumn id="1" name="할일" dataDxfId="30"/>
+    <tableColumn id="2" name="내용" dataDxfId="29"/>
+    <tableColumn id="3" name="할당일" dataDxfId="28"/>
+    <tableColumn id="4" name="완성일" dataDxfId="27"/>
+    <tableColumn id="5" name="결과" dataDxfId="26"/>
+    <tableColumn id="6" name="문제점" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table156" displayName="Table156" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table156" displayName="Table156" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -802,25 +848,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -840,32 +886,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="13">
-        <v>43601</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43594</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43597</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>43594</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43597</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -873,7 +932,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -881,7 +940,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -889,7 +948,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -897,7 +956,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -905,7 +964,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -913,7 +972,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -921,7 +980,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -929,7 +988,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -937,7 +996,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -945,7 +1004,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -953,7 +1012,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -964,32 +1023,32 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="3" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.08984375" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1009,9 +1068,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -1023,18 +1082,18 @@
         <v>43594</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4">
         <v>43595</v>
@@ -1046,15 +1105,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4">
         <v>43598</v>
@@ -1063,19 +1122,19 @@
         <v>43601</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
         <v>43610</v>
@@ -1084,15 +1143,15 @@
         <v>43610</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="96" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>0</v>
@@ -1104,18 +1163,18 @@
         <v>43614</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4">
         <v>43616</v>
@@ -1124,37 +1183,71 @@
         <v>43616</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43617</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43617</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43617</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43617</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43623</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43623</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -1162,7 +1255,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -1170,7 +1263,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -1178,7 +1271,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -1186,7 +1279,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -1205,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1213,12 +1306,12 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="6" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1238,12 +1331,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C2" s="9">
         <v>43608</v>
@@ -1252,16 +1345,16 @@
         <v>43610</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C3" s="9">
         <v>43601</v>
@@ -1270,18 +1363,18 @@
         <v>43611</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2">
         <v>43612</v>
@@ -1290,13 +1383,13 @@
         <v>43622</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1304,7 +1397,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1312,7 +1405,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1320,7 +1413,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1328,7 +1421,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1336,7 +1429,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1344,7 +1437,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1352,7 +1445,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1360,7 +1453,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1368,7 +1461,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1376,7 +1469,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1395,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1403,12 +1496,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="20.21875" customWidth="1"/>
+    <col min="1" max="6" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1428,12 +1521,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6">
         <v>43594</v>
@@ -1445,10 +1538,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1456,7 +1549,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1464,7 +1557,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1472,7 +1565,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1480,7 +1573,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1488,7 +1581,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1496,7 +1589,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1504,7 +1597,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1512,7 +1605,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1520,7 +1613,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1528,7 +1621,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1536,7 +1629,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1544,7 +1637,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1563,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1571,14 +1664,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
     <col min="3" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1598,9 +1691,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1612,11 +1705,11 @@
         <v>43616</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1624,7 +1717,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1632,7 +1725,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1640,7 +1733,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1648,7 +1741,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1656,7 +1749,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1664,7 +1757,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1672,7 +1765,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1680,7 +1773,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1688,7 +1781,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1696,7 +1789,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1704,7 +1797,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEE\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김근우\Desktop\소프트웨어공학\software engineering git\KNU-Software-Engineering-Team-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AE530B-48EB-4F6C-9AAC-FE21560DE689}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="6570" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>정해진 형식에 맞춰 DB에서 읽고 저장하여 실시간 업데이트가 되고 파일 형식의 DB가 아닌 서버 형식의 DB와 읽고 쓸 수 있도록 수정</t>
   </si>
@@ -58,22 +59,13 @@
     <t>클래스와 패키지의 명명법을 camel case와 pascal case로 변경</t>
   </si>
   <si>
-    <t>개선된 코드 SearchMachine.java 를 git commit 함</t>
-  </si>
-  <si>
     <t>변경된 코드들이 이전과 같이 작동하는지 확인한 후 git에 commit함</t>
   </si>
   <si>
     <t>DB에서 읽어오는 것에 대한 수정이 이루어지지 않아 실시간 업데이트가 아님</t>
   </si>
   <si>
-    <t xml:space="preserve">Junit test code TestSearchMachine.java 를 git commit. </t>
-  </si>
-  <si>
     <t>최종 합격 등록을 한 후 파견실적 데이터를 새로 생성하여 파견실적 리스트에 저장할 수 있게 됨</t>
-  </si>
-  <si>
-    <t>세가지 유형의 검색조건에 따라 다른 검색이 가능하도록 개선</t>
   </si>
   <si>
     <t>login UI 개선</t>
@@ -103,12 +95,6 @@
 git commit함</t>
   </si>
   <si>
-    <t>코드가 지저분. Refactoring 필요</t>
-  </si>
-  <si>
-    <t>코드 커버리지가 낮음. 개선필요</t>
-  </si>
-  <si>
     <t>클래스 및 패키지 명명법 수정</t>
   </si>
   <si>
@@ -133,12 +119,6 @@
     <t>코드 리팩토링</t>
   </si>
   <si>
-    <t>검색기능개선</t>
-  </si>
-  <si>
-    <t>검색기능 관련 class unit testing</t>
-  </si>
-  <si>
     <t xml:space="preserve">UserInterface.java에 대한 모듈화 </t>
   </si>
   <si>
@@ -254,12 +234,21 @@
   <si>
     <t>중복 학번 회원가입을 검사하지 않음 또한 학생의 학번을 임의로 설정할 수 없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInterface UI 개선</t>
+  </si>
+  <si>
+    <t>System UI에서 userInterface UI에 대한 디자인을 좀더 사용하기 편하게 바꿈</t>
+  </si>
+  <si>
+    <t>원래의 userInterface UI보다 보기에 깔끔하고 사용하기 용이함</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -483,75 +472,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="30"/>
-    <tableColumn id="2" name="내용" dataDxfId="29"/>
-    <tableColumn id="3" name="할당일" dataDxfId="28"/>
-    <tableColumn id="4" name="완성일" dataDxfId="27"/>
-    <tableColumn id="5" name="결과" dataDxfId="26"/>
-    <tableColumn id="6" name="문제점" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table156" displayName="Table156" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table156" displayName="Table156" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -848,25 +837,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="5" max="5" width="26.36328125" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -886,45 +875,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
+    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="6">
+        <v>43601</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -932,7 +907,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -940,7 +915,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -948,7 +923,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -956,7 +931,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -964,7 +939,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -972,7 +947,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -980,7 +955,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -988,7 +963,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -996,7 +971,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1004,7 +979,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1012,7 +987,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1023,32 +998,32 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.08984375" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1068,9 +1043,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -1082,18 +1057,18 @@
         <v>43594</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4">
         <v>43595</v>
@@ -1105,15 +1080,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4">
         <v>43598</v>
@@ -1122,19 +1097,19 @@
         <v>43601</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4">
         <v>43610</v>
@@ -1143,15 +1118,15 @@
         <v>43610</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="96" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>0</v>
@@ -1163,18 +1138,18 @@
         <v>43614</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>43616</v>
@@ -1183,18 +1158,18 @@
         <v>43616</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="38.4" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4">
         <v>43617</v>
@@ -1203,18 +1178,18 @@
         <v>43617</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4">
         <v>43617</v>
@@ -1223,16 +1198,16 @@
         <v>43617</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4">
         <v>43623</v>
@@ -1241,13 +1216,13 @@
         <v>43623</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -1255,7 +1230,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -1263,7 +1238,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -1271,7 +1246,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -1279,7 +1254,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -1298,7 +1273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1306,12 +1281,12 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.08984375" customWidth="1"/>
+    <col min="1" max="6" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1331,12 +1306,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9">
         <v>43608</v>
@@ -1345,16 +1320,16 @@
         <v>43610</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9">
         <v>43601</v>
@@ -1363,18 +1338,18 @@
         <v>43611</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <v>43612</v>
@@ -1383,13 +1358,13 @@
         <v>43622</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1397,7 +1372,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1405,7 +1380,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1413,7 +1388,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1421,7 +1396,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1429,7 +1404,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1437,7 +1412,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1445,7 +1420,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1453,7 +1428,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1461,7 +1436,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1469,7 +1444,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1488,7 +1463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1496,12 +1471,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.1796875" customWidth="1"/>
+    <col min="1" max="6" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1521,12 +1496,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6">
         <v>43594</v>
@@ -1538,10 +1513,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1549,7 +1524,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1557,7 +1532,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1565,7 +1540,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1573,7 +1548,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1581,7 +1556,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1589,7 +1564,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1597,7 +1572,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1605,7 +1580,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1613,7 +1588,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1621,7 +1596,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1629,7 +1604,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1637,7 +1612,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1656,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1664,14 +1639,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
     <col min="3" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1691,9 +1666,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1705,11 +1680,11 @@
         <v>43616</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1717,7 +1692,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1725,7 +1700,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1733,7 +1708,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1741,7 +1716,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1749,7 +1724,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1757,7 +1732,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1765,7 +1740,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1773,7 +1748,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1781,7 +1756,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1789,7 +1764,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1797,7 +1772,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김근우\Desktop\소프트웨어공학\software engineering git\KNU-Software-Engineering-Team-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoony\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AE530B-48EB-4F6C-9AAC-FE21560DE689}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A78CC4-8FF7-4A24-8C10-690CBACC1624}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>정해진 형식에 맞춰 DB에서 읽고 저장하여 실시간 업데이트가 되고 파일 형식의 DB가 아닌 서버 형식의 DB와 읽고 쓸 수 있도록 수정</t>
   </si>
@@ -59,13 +59,22 @@
     <t>클래스와 패키지의 명명법을 camel case와 pascal case로 변경</t>
   </si>
   <si>
+    <t>개선된 코드 SearchMachine.java 를 git commit 함</t>
+  </si>
+  <si>
     <t>변경된 코드들이 이전과 같이 작동하는지 확인한 후 git에 commit함</t>
   </si>
   <si>
     <t>DB에서 읽어오는 것에 대한 수정이 이루어지지 않아 실시간 업데이트가 아님</t>
   </si>
   <si>
+    <t xml:space="preserve">Junit test code TestSearchMachine.java 를 git commit. </t>
+  </si>
+  <si>
     <t>최종 합격 등록을 한 후 파견실적 데이터를 새로 생성하여 파견실적 리스트에 저장할 수 있게 됨</t>
+  </si>
+  <si>
+    <t>세가지 유형의 검색조건에 따라 다른 검색이 가능하도록 개선</t>
   </si>
   <si>
     <t>login UI 개선</t>
@@ -95,6 +104,12 @@
 git commit함</t>
   </si>
   <si>
+    <t>코드가 지저분. Refactoring 필요</t>
+  </si>
+  <si>
+    <t>코드 커버리지가 낮음. 개선필요</t>
+  </si>
+  <si>
     <t>클래스 및 패키지 명명법 수정</t>
   </si>
   <si>
@@ -117,6 +132,12 @@
   </si>
   <si>
     <t>코드 리팩토링</t>
+  </si>
+  <si>
+    <t>검색기능개선</t>
+  </si>
+  <si>
+    <t>검색기능 관련 class unit testing</t>
   </si>
   <si>
     <t xml:space="preserve">UserInterface.java에 대한 모듈화 </t>
@@ -190,59 +211,6 @@
   <si>
     <t>로그인 ui를 화면 중앙에 표시하도록 함, passwd부분에서 enter key를 통해 로그인 버튼이 눌리도록 해야 합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guest 클래스 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guest 클래스가 사용되는 부분이 무의미하여 삭제함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불필요한 클래스를 삭제함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Administer 클래스도 불필요하다 생각됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예외처리 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모집공고 작성시 사용자 입력에 따른 예외처리를 추가함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 정수가 입력되어야 할때 String이 입력되면 에러가 아닌 메시지 박스로 경고를 보냄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 화면의 회원가입 기능을 이용해서 새로운 사용자를 등록할 수 있게함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 기능을 통해 새로운 사용자를 등록할 수 있음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 학번 회원가입을 검사하지 않음 또한 학생의 학번을 임의로 설정할 수 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>userInterface UI 개선</t>
-  </si>
-  <si>
-    <t>System UI에서 userInterface UI에 대한 디자인을 좀더 사용하기 편하게 바꿈</t>
-  </si>
-  <si>
-    <t>원래의 userInterface UI보다 보기에 깔끔하고 사용하기 용이함</t>
   </si>
 </sst>
 </file>
@@ -841,21 +809,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -875,31 +843,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="6">
-        <v>43601</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43594</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43597</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>43594</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43597</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -907,7 +889,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -915,7 +897,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -923,7 +905,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -931,7 +913,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -939,7 +921,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -947,7 +929,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -955,7 +937,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -963,7 +945,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -971,7 +953,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -979,7 +961,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -987,7 +969,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -998,9 +980,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1011,19 +993,19 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="3" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.08984375" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1043,9 +1025,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -1057,18 +1039,18 @@
         <v>43594</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4">
         <v>43595</v>
@@ -1080,15 +1062,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4">
         <v>43598</v>
@@ -1097,19 +1079,19 @@
         <v>43601</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
         <v>43610</v>
@@ -1118,15 +1100,15 @@
         <v>43610</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="96" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>0</v>
@@ -1138,18 +1120,18 @@
         <v>43614</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4">
         <v>43616</v>
@@ -1158,71 +1140,37 @@
         <v>43616</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4">
-        <v>43617</v>
-      </c>
-      <c r="D8" s="4">
-        <v>43617</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="4">
-        <v>43617</v>
-      </c>
-      <c r="D9" s="4">
-        <v>43617</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>54</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="4">
-        <v>43623</v>
-      </c>
-      <c r="D10" s="4">
-        <v>43623</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -1230,7 +1178,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -1238,7 +1186,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -1246,7 +1194,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -1254,7 +1202,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -1277,16 +1225,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="6" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1306,12 +1254,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C2" s="9">
         <v>43608</v>
@@ -1320,16 +1268,16 @@
         <v>43610</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C3" s="9">
         <v>43601</v>
@@ -1338,18 +1286,18 @@
         <v>43611</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2">
         <v>43612</v>
@@ -1358,13 +1306,13 @@
         <v>43622</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1372,7 +1320,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1380,7 +1328,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1388,7 +1336,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1396,7 +1344,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1404,7 +1352,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1412,7 +1360,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1420,7 +1368,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1428,7 +1376,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1436,7 +1384,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1444,7 +1392,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1471,12 +1419,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="20.21875" customWidth="1"/>
+    <col min="1" max="6" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1496,12 +1444,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6">
         <v>43594</v>
@@ -1513,10 +1461,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1524,7 +1472,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1532,7 +1480,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1540,7 +1488,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1548,7 +1496,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1556,7 +1504,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1564,7 +1512,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1572,7 +1520,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1580,7 +1528,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1588,7 +1536,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1596,7 +1544,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1604,7 +1552,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1612,7 +1560,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1639,14 +1587,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
     <col min="3" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1666,9 +1614,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1680,11 +1628,11 @@
         <v>43616</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1692,7 +1640,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1700,7 +1648,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1708,7 +1656,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1716,7 +1664,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1724,7 +1672,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1732,7 +1680,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1740,7 +1688,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1748,7 +1696,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1756,7 +1704,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1764,7 +1712,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1772,7 +1720,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김근우\Desktop\소프트웨어공학\software engineering git\KNU-Software-Engineering-Team-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoony\Desktop\software\KNU-Software-Engineering-Team-15-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AE530B-48EB-4F6C-9AAC-FE21560DE689}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B249DDB-4DD5-4A5D-8DF5-052B4C0DE26C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>정해진 형식에 맞춰 DB에서 읽고 저장하여 실시간 업데이트가 되고 파일 형식의 DB가 아닌 서버 형식의 DB와 읽고 쓸 수 있도록 수정</t>
   </si>
@@ -243,6 +243,38 @@
   </si>
   <si>
     <t>원래의 userInterface UI보다 보기에 깔끔하고 사용하기 용이함</t>
+  </si>
+  <si>
+    <t>Credit UI 디자인 개선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit UI 디자인이 그냥 창으로만 되어있었습니다. 그래서 디자인을 개선했습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>깔끔하게 UI창으로 개선했습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부족한 부분은 배경을 넣어서 수정 보완 하면 될꺼 같습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 스멜 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인을 하면서 글자가 글꼴이 겹치는 부분이 복사된 코드라면서 코드 스멜로 발견되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>font 라는 변수 = '글꼴'로 선언하여 수정했습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -292,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -315,49 +347,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+  <dxfs count="32">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -475,42 +501,42 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="25">
   <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -520,12 +546,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -535,12 +561,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table156" displayName="Table156" ref="A1:F14" totalsRowShown="0">
   <autoFilter ref="A1:F14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="할일" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="내용" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="할당일" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="완성일" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="결과" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="문제점" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -841,21 +867,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -875,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>59</v>
       </c>
@@ -891,7 +917,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -899,7 +925,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -907,7 +933,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -915,7 +941,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -923,7 +949,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -931,7 +957,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -939,7 +965,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -947,7 +973,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -955,7 +981,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -963,7 +989,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -971,7 +997,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -979,7 +1005,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -987,7 +1013,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1010,20 +1036,20 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+    <col min="3" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.08984375" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1043,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -1063,7 +1089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1083,7 +1109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -1104,7 +1130,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1124,7 +1150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="96" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1137,18 +1163,18 @@
       <c r="D6" s="4">
         <v>43614</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="4">
@@ -1157,18 +1183,18 @@
       <c r="D7" s="4">
         <v>43616</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:8" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="4">
@@ -1177,18 +1203,18 @@
       <c r="D8" s="4">
         <v>43617</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="4">
@@ -1197,16 +1223,16 @@
       <c r="D9" s="4">
         <v>43617</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="4">
@@ -1215,14 +1241,14 @@
       <c r="D10" s="4">
         <v>43623</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -1230,7 +1256,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -1238,7 +1264,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -1246,7 +1272,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -1254,7 +1280,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -1277,16 +1303,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="6" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1306,151 +1332,173 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>43608</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>43610</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>43601</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>43611</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>43612</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>43622</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+    <row r="5" spans="1:6" ht="76.8" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="76.8" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1471,12 +1519,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="20.21875" customWidth="1"/>
+    <col min="1" max="6" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1496,7 +1544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -1516,7 +1564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1524,7 +1572,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1532,7 +1580,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1540,7 +1588,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1548,7 +1596,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1556,7 +1604,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1564,7 +1612,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1572,7 +1620,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1580,7 +1628,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1588,7 +1636,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1596,7 +1644,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1604,7 +1652,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1612,7 +1660,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1639,14 +1687,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
     <col min="3" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1684,7 +1732,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1692,7 +1740,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1700,7 +1748,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1708,7 +1756,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1716,7 +1764,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1724,7 +1772,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1732,7 +1780,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1740,7 +1788,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1748,7 +1796,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1756,7 +1804,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1764,7 +1812,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1772,7 +1820,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoony\Desktop\software\KNU-Software-Engineering-Team-15-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEE\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B249DDB-4DD5-4A5D-8DF5-052B4C0DE26C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
   <si>
     <t>정해진 형식에 맞춰 DB에서 읽고 저장하여 실시간 업데이트가 되고 파일 형식의 DB가 아닌 서버 형식의 DB와 읽고 쓸 수 있도록 수정</t>
   </si>
@@ -276,11 +275,87 @@
     <t>font 라는 변수 = '글꼴'로 선언하여 수정했습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>파견 실적 조회 UI 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지고 있는 파견실적을 그래프를 통해 조회할 수 있도록 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파견 실적 조회 기능을 사용할 수 있게 됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집 공고 조회 및 진행상황 조회 UI 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 UI와 같이 디자인을 개선함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 UI보다 좀 더 심미적으로 나은 UI로 변경함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 통합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 integration을 진행함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 UI들에 맞춰 기능에 접근하여 사용할 수 있도록 이때까지 구현한 기능을 합침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QNA UI에 대해서는 새로운 UI가 만들어지지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 및 코드 스멜 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소나큐브를 참고하여 코드 리팩토링을 진행함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그를 전부 수정하고 코드 스멜을 줄임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그와 취약점의 경우 다 잡아낼 수 있었지만 코드 스멜이 목표치에 도달하지 못했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 제작 및 회의록 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 ppt를 작성하고 이때까지 모임이 있을 때마다 회의록을 작성함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 시작일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 및 회의록 작성 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -359,7 +434,52 @@
   </cellStyles>
   <dxfs count="32">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -386,52 +506,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="general" vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -498,75 +573,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="26"/>
+    <tableColumn id="1" name="할일" dataDxfId="31"/>
+    <tableColumn id="2" name="내용" dataDxfId="30"/>
+    <tableColumn id="3" name="할당일" dataDxfId="29"/>
+    <tableColumn id="4" name="완성일" dataDxfId="28"/>
+    <tableColumn id="5" name="결과" dataDxfId="27"/>
+    <tableColumn id="6" name="문제점" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="25">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="25">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="19"/>
+    <tableColumn id="1" name="할일" dataDxfId="24"/>
+    <tableColumn id="2" name="내용" dataDxfId="23"/>
+    <tableColumn id="3" name="할당일" dataDxfId="22"/>
+    <tableColumn id="4" name="완성일" dataDxfId="21"/>
+    <tableColumn id="5" name="결과" dataDxfId="20"/>
+    <tableColumn id="6" name="문제점" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="1"/>
+    <tableColumn id="1" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="13"/>
+    <tableColumn id="1" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table156" displayName="Table156" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table156" displayName="Table156" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="할일" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="내용" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="할당일" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="완성일" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="결과" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="문제점" dataDxfId="7"/>
+    <tableColumn id="1" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -863,7 +938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1032,12 +1107,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1248,37 +1323,81 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
+    <row r="11" spans="1:8" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43634</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43635</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+    <row r="12" spans="1:8" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43635</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43635</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43635</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43636</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43634</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43636</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
@@ -1299,17 +1418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -1428,12 +1550,22 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1511,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1679,12 +1811,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEE\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\황민태\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CA6F66-1F01-4961-92DF-A3A596F5F8D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
   <si>
     <t>정해진 형식에 맞춰 DB에서 읽고 저장하여 실시간 업데이트가 되고 파일 형식의 DB가 아닌 서버 형식의 DB와 읽고 쓸 수 있도록 수정</t>
   </si>
@@ -351,11 +352,67 @@
     <t>ppt 및 회의록 작성 완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>로컬 파일을 통한 데이터 저장, 로드 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>client.Client class 생성, setObject, getObject 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 서버를 할당 받지 못해 서버 클라이언트 대신 파일 입출력으로 대체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key를 2개 가지고 저장, 로드하는 함수 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setObject(key1, key2, object), getObject(key1, key2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실로부터 할당받은 서버를 이용해 서버 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 로컬 파일로 데이터 저장, 로드하던 것을 서버로 migration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽 문제로 인해 서버에 접속 불가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개방해주신 포트를 이용하여 서버 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패. 기존의 파일 기반 시스템으로 계속 사용하기로 결정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 부족, Server.java의 근본적인 통신 방식에 문제가 있는 것으로 파악되어 폐기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -399,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -428,6 +485,9 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -573,75 +633,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="31"/>
-    <tableColumn id="2" name="내용" dataDxfId="30"/>
-    <tableColumn id="3" name="할당일" dataDxfId="29"/>
-    <tableColumn id="4" name="완성일" dataDxfId="28"/>
-    <tableColumn id="5" name="결과" dataDxfId="27"/>
-    <tableColumn id="6" name="문제점" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="25">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0" dataDxfId="25">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="24"/>
-    <tableColumn id="2" name="내용" dataDxfId="23"/>
-    <tableColumn id="3" name="할당일" dataDxfId="22"/>
-    <tableColumn id="4" name="완성일" dataDxfId="21"/>
-    <tableColumn id="5" name="결과" dataDxfId="20"/>
-    <tableColumn id="6" name="문제점" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0" dataDxfId="18">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table156" displayName="Table156" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table156" displayName="Table156" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -938,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -946,17 +1006,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="5" max="5" width="26.36328125" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -976,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>59</v>
       </c>
@@ -992,7 +1052,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1000,7 +1060,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1008,7 +1068,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1016,7 +1076,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1024,7 +1084,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1032,7 +1092,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1040,7 +1100,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1048,7 +1108,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1056,7 +1116,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1064,7 +1124,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1072,7 +1132,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1080,7 +1140,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1088,7 +1148,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1107,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -1115,16 +1175,16 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="29.08984375" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -1164,7 +1224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1184,7 +1244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -1205,7 +1265,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1225,7 +1285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="96" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1245,7 +1305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -1265,7 +1325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
@@ -1285,7 +1345,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>52</v>
       </c>
@@ -1303,7 +1363,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1323,7 +1383,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>70</v>
       </c>
@@ -1341,7 +1401,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>73</v>
       </c>
@@ -1359,7 +1419,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>76</v>
       </c>
@@ -1379,7 +1439,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>80</v>
       </c>
@@ -1399,7 +1459,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -1418,7 +1478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1426,15 +1486,15 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +1514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -1472,7 +1532,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
@@ -1492,7 +1552,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>42</v>
       </c>
@@ -1512,7 +1572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="76.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>62</v>
       </c>
@@ -1532,7 +1592,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="76.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
@@ -1550,7 +1610,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>84</v>
       </c>
@@ -1568,7 +1628,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1576,7 +1636,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1584,7 +1644,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1592,7 +1652,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1600,7 +1660,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1608,7 +1668,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -1616,7 +1676,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
@@ -1624,7 +1684,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
@@ -1643,20 +1703,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.1796875" customWidth="1"/>
+    <col min="1" max="6" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1676,7 +1736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -1696,7 +1756,221 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43610</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42149</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43612</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43614</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43632</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43635</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43635</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43636</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="3" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43615</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43616</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1704,7 +1978,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1712,7 +1986,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1720,7 +1994,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1728,7 +2002,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1736,7 +2010,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1744,7 +2018,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1752,7 +2026,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1760,7 +2034,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1768,7 +2042,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1776,7 +2050,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1784,175 +2058,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" customWidth="1"/>
-    <col min="3" max="6" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43615</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43616</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\황민태\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\제규\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CA6F66-1F01-4961-92DF-A3A596F5F8D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB87D52A-B013-4997-95A8-99DBC8909923}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1425" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
   <si>
     <t>정해진 형식에 맞춰 DB에서 읽고 저장하여 실시간 업데이트가 되고 파일 형식의 DB가 아닌 서버 형식의 DB와 읽고 쓸 수 있도록 수정</t>
   </si>
@@ -406,6 +406,31 @@
   </si>
   <si>
     <t>시간 부족, Server.java의 근본적인 통신 방식에 문제가 있는 것으로 파악되어 폐기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 문서 중 사용해도 될 문서와 정리해야 할 문서 분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trello에 업로드
+(git에는 06-20에 업로드)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수학점 관리 UI 개선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수학점 관리 UI를 조회버튼을 눌러야 되도록 하고, Table을 깔끔하게 정리함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditUI.java git에 업로드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1171,8 +1196,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1707,7 +1732,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1921,13 +1946,13 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="35.5546875" customWidth="1"/>
     <col min="3" max="6" width="17" customWidth="1"/>
   </cols>
@@ -1970,20 +1995,40 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43613</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43622</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43634</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43635</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2069,9 +2114,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\제규\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB87D52A-B013-4997-95A8-99DBC8909923}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A556833-32A9-40D6-8294-F9658B5EBB3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1425" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="123">
   <si>
     <t>정해진 형식에 맞춰 DB에서 읽고 저장하여 실시간 업데이트가 되고 파일 형식의 DB가 아닌 서버 형식의 DB와 읽고 쓸 수 있도록 수정</t>
   </si>
@@ -86,15 +86,6 @@
     <t>각 클래스들에서 불필요한 코드를 제거하여 가독성과 유지 보수성이 상승함</t>
   </si>
   <si>
-    <t>개선된 코드
-QnAUI.java
-RecruitCreateUI.java
-RecruitDeleteUI.java
-RecruitLookUI.java
-StateLookUI.java를
-git commit함</t>
-  </si>
-  <si>
     <t>클래스 및 패키지 명명법 수정</t>
   </si>
   <si>
@@ -417,11 +408,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Trello에 업로드
-(git에는 06-20에 업로드)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이수학점 관리 UI 개선</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -431,6 +417,71 @@
   </si>
   <si>
     <t>CreditUI.java git에 업로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 / 취소버튼에 대한 질의창 추가 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 삭제기능 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA에 있어야 할 삭제기능이 없어서 삭제기능을 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제기능이 추가되었고, 정상작동 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상작동은 하지만 기존 QnaUI.java 자체가 문제가 많아서 다른 수정 시 문제가 생길 수 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 열람 권한 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부인 로그인(비회원 로그인, 추후 삭제)시나 학생 로그인 시 본인의 QnA만 볼 수 있게 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnaUI.java에서 사용자가 볼 수 있는 QnA의 목록을 추가할 때 사용자의 권한과 학생이라면 누군지에 따라 볼 수 있는 목록이 정해지게 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 취약점 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 스멜 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 코드 스멜이 너무 많아서 간단한 부분부터 스멜 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수학점 관런 .java, 모집공고 관련 .java, 파견실적 관련 .java 등에 대한 스멜 줄이기 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>절반정도가 변수 명명법에 대한 스멜이었으며, QnA에는 종류별로 너무 많은 스멜이 있었으나 QnAUI 작업과의 충돌을 피하기 위해서 접근하지 못함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCase Diagram, Activity Diagram 부터 ClassDiagram 등 업로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 코드에 있는 취약점 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditUI.java 등에서 발견된 try catch문 관련 공통 취약점 제거
+(취약점 10개 -&gt; 최종 0개)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1063,17 +1114,17 @@
     </row>
     <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="C2" s="6">
         <v>43601</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -1196,7 +1247,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1231,7 +1282,7 @@
     </row>
     <row r="2" spans="1:8" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
@@ -1246,15 +1297,15 @@
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C3" s="4">
         <v>43595</v>
@@ -1266,15 +1317,15 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4">
         <v>43598</v>
@@ -1286,7 +1337,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -1295,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4">
         <v>43610</v>
@@ -1324,18 +1375,18 @@
         <v>43614</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>43616</v>
@@ -1344,18 +1395,18 @@
         <v>43616</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="C8" s="4">
         <v>43617</v>
@@ -1364,18 +1415,18 @@
         <v>43617</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="C9" s="4">
         <v>43617</v>
@@ -1384,16 +1435,16 @@
         <v>43617</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="C10" s="4">
         <v>43623</v>
@@ -1402,18 +1453,18 @@
         <v>43623</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="C11" s="4">
         <v>43634</v>
@@ -1422,16 +1473,16 @@
         <v>43635</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="C12" s="4">
         <v>43635</v>
@@ -1440,16 +1491,16 @@
         <v>43635</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="C13" s="4">
         <v>43635</v>
@@ -1458,18 +1509,18 @@
         <v>43636</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="C14" s="4">
         <v>43634</v>
@@ -1478,10 +1529,10 @@
         <v>43636</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1507,7 +1558,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1544,7 +1595,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6">
         <v>43608</v>
@@ -1553,16 +1604,16 @@
         <v>43610</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="6">
         <v>43601</v>
@@ -1571,18 +1622,18 @@
         <v>43611</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6">
         <v>43612</v>
@@ -1591,65 +1642,65 @@
         <v>43622</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="F7" s="7"/>
     </row>
@@ -1763,7 +1814,7 @@
     </row>
     <row r="2" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>18</v>
@@ -1778,15 +1829,15 @@
         <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="C3" s="2">
         <v>43610</v>
@@ -1795,18 +1846,18 @@
         <v>42149</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="C4" s="2">
         <v>43612</v>
@@ -1815,16 +1866,16 @@
         <v>43614</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="C5" s="2">
         <v>43632</v>
@@ -1833,18 +1884,18 @@
         <v>43635</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="C6" s="2">
         <v>43635</v>
@@ -1853,10 +1904,10 @@
         <v>43636</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1946,15 +1997,17 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="35.5546875" customWidth="1"/>
-    <col min="3" max="6" width="17" customWidth="1"/>
+    <col min="3" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1977,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1990,17 +2043,17 @@
       <c r="D2" s="2">
         <v>43616</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
+      <c r="E2" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="C3" s="2">
         <v>43613</v>
@@ -2009,16 +2062,16 @@
         <v>43622</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2">
         <v>43634</v>
@@ -2027,40 +2080,84 @@
         <v>43635</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+      <c r="B5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43634</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43635</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43634</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43635</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+    <row r="7" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43635</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43636</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43636</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43636</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\제규\Documents\GitHub\KNU-Software-Engineering-Team-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김근우\Desktop\소프트웨어공학\software engineering git\KNU-Software-Engineering-Team-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A556833-32A9-40D6-8294-F9658B5EBB3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C9DC33-2942-4850-9CC6-1B87F6F6C9BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1425" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="김근우" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="134">
   <si>
     <t>정해진 형식에 맞춰 DB에서 읽고 저장하여 실시간 업데이트가 되고 파일 형식의 DB가 아닌 서버 형식의 DB와 읽고 쓸 수 있도록 수정</t>
   </si>
@@ -482,6 +482,50 @@
   <si>
     <t>CreditUI.java 등에서 발견된 try catch문 관련 공통 취약점 제거
 (취약점 10개 -&gt; 최종 0개)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 userInterface UI를 삭제 및 MainUI 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 userInterface를 삭제 바꾼 디자인은 MainUI로 명명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInterfaceUI를 MainUI로 명명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInterface UI에 쓰일 사진 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInterfaceUI에 쓰일 버튼, 배경들의 사진을 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼들의 이미지파일과 배경에대한 사진 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainUI에 대해서 관리자, 학생 구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainUI에 대해서 학생과 관리자에 대한 메뉴를 달리띄움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자와 학생에대한 메뉴를 달리띄움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainUI의 업데이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainUI에 버튼의 커서를 바꾸고 마우스로 창을 드래그가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -563,6 +607,15 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,8 +1131,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1122,67 +1175,109 @@
       <c r="C2" s="6">
         <v>43601</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="9">
+        <v>43626</v>
+      </c>
       <c r="E2" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="13">
+        <v>43601</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43626</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="9">
+        <v>43626</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43626</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43626</v>
+      </c>
+      <c r="D5" s="9">
+        <v>43631</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43631</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43633</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1247,7 +1342,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1558,7 +1653,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1997,7 +2092,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2084,7 +2179,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>108</v>
       </c>
